--- a/Cronograma_Detalhado.xlsx
+++ b/Cronograma_Detalhado.xlsx
@@ -476,7 +476,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
